--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_26_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_26_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89694.75345380866</v>
+        <v>16093734.22491368</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89694.75345380866</v>
+        <v>16093734.22491368</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3936.784558688913</v>
+        <v>381527.2283517249</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3936.784558688913</v>
+        <v>381527.2283517249</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036074462.206385</v>
+        <v>42741100.58437766</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8452.493759616978</v>
+        <v>1010219.009909885</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15966.04223541076</v>
+        <v>1857059.280403298</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23377.73880662372</v>
+        <v>2703899.550896712</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31091.99724630525</v>
+        <v>3553089.4318331</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38763.32646766528</v>
+        <v>4401810.377366357</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>46428.69378277742</v>
+        <v>5250531.322899613</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>54057.71226712753</v>
+        <v>6099330.545246774</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>61734.30807327473</v>
+        <v>6948116.912106807</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>69268.42718701014</v>
+        <v>7796270.951291541</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>76878.75252900989</v>
+        <v>8644556.775192795</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>84489.48215628398</v>
+        <v>9492842.599094052</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>91930.40433921925</v>
+        <v>10339043.80470615</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99345.24347906747</v>
+        <v>11185669.30586235</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>107016.1460782176</v>
+        <v>11992264.29016352</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>114718.2458626603</v>
+        <v>12804982.93310131</v>
       </c>
     </row>
   </sheetData>
@@ -27043,7 +27043,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>362</v>
@@ -27055,16 +27055,16 @@
         <v>49</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>374</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>49</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,16 +27147,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>89</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
